--- a/Excel Sheets/phys346_t6.xlsx
+++ b/Excel Sheets/phys346_t6.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0add38f13e4a50/Desktop/Spring 2024/Assignments/Physics/Adlab Lab 5 - RLE/AdLab_Lab_5/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815A887-3D06-4F44-A24D-EBCC9C071AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{9815A887-3D06-4F44-A24D-EBCC9C071AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C22D66C-C81E-4E25-A5B3-ED300F5A7A5C}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="19200" windowHeight="9980" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="bt">Sheet1!$F$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B30-E846-4E8E-9968-FF3CDB4A6A11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -435,6 +438,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="C3">
+        <v>3.3000000000001251E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="B4">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="C4">
+        <v>6.5999999999995396E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="C5">
+        <v>9.8999999999996646E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="B6">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.12999999999999545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="C7">
+        <v>0.16700000000000159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.19500000000000028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B9">
+        <v>0.67</v>
+      </c>
+      <c r="C9">
+        <v>0.23299999999999699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0.26200000000000045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1.3294999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.68</v>
+      </c>
+      <c r="C11">
+        <v>0.29599999999999937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.67</v>
+      </c>
+      <c r="C12">
+        <v>0.33299999999999841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1.6415</v>
+      </c>
+      <c r="B13">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.36200000000000188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14">
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
